--- a/resources/field_forms/field_form_bandreplace[2019].xlsx
+++ b/resources/field_forms/field_form_bandreplace[2019].xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgregori\Dropbox (Smithsonian)\Github_Ian\Dendrobands\resources\field_forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github_SCBI\Dendrobands\resources\field_forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="37">
   <si>
     <t>Dendroband Replacement                       Date:                       Surveyors:</t>
   </si>
@@ -124,6 +126,15 @@
   </si>
   <si>
     <t>finish</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>bandreplace</t>
+  </si>
+  <si>
+    <t>treereplace</t>
   </si>
 </sst>
 </file>
@@ -192,12 +203,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,28 +510,28 @@
     <col min="15" max="15" width="26.28515625" customWidth="1"/>
     <col min="16" max="16" width="5.5703125" customWidth="1"/>
     <col min="18" max="18" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="6"/>
+    <col min="21" max="21" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -577,7 +588,7 @@
       <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -640,7 +651,7 @@
         <f>S3/10</f>
         <v>96.5</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <f>T3+10</f>
         <v>106.5</v>
       </c>
@@ -704,7 +715,7 @@
         <f t="shared" ref="T4:T31" si="0">S4/10</f>
         <v>104.67999999999999</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <f t="shared" ref="U4:U31" si="1">T4+10</f>
         <v>114.67999999999999</v>
       </c>
@@ -768,7 +779,7 @@
         <f t="shared" si="0"/>
         <v>63.35</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <f t="shared" si="1"/>
         <v>73.349999999999994</v>
       </c>
@@ -832,7 +843,7 @@
         <f t="shared" si="0"/>
         <v>65.3</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <f t="shared" si="1"/>
         <v>75.3</v>
       </c>
@@ -896,7 +907,7 @@
         <f t="shared" si="0"/>
         <v>82.710000000000008</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <f t="shared" si="1"/>
         <v>92.710000000000008</v>
       </c>
@@ -960,7 +971,7 @@
         <f t="shared" si="0"/>
         <v>67.97999999999999</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <f t="shared" si="1"/>
         <v>77.97999999999999</v>
       </c>
@@ -1024,7 +1035,7 @@
         <f t="shared" si="0"/>
         <v>45.78</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <f t="shared" si="1"/>
         <v>55.78</v>
       </c>
@@ -1088,7 +1099,7 @@
         <f t="shared" si="0"/>
         <v>56.29</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <f t="shared" si="1"/>
         <v>66.289999999999992</v>
       </c>
@@ -1152,7 +1163,7 @@
         <f t="shared" si="0"/>
         <v>143.76</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <f t="shared" si="1"/>
         <v>153.76</v>
       </c>
@@ -1216,7 +1227,7 @@
         <f t="shared" si="0"/>
         <v>111.71</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <f t="shared" si="1"/>
         <v>121.71</v>
       </c>
@@ -1280,7 +1291,7 @@
         <f t="shared" si="0"/>
         <v>118.58</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <f t="shared" si="1"/>
         <v>128.57999999999998</v>
       </c>
@@ -1344,7 +1355,7 @@
         <f t="shared" si="0"/>
         <v>103.74000000000001</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <f t="shared" si="1"/>
         <v>113.74000000000001</v>
       </c>
@@ -1408,7 +1419,7 @@
         <f t="shared" si="0"/>
         <v>101.2</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <f t="shared" si="1"/>
         <v>111.2</v>
       </c>
@@ -1472,7 +1483,7 @@
         <f t="shared" si="0"/>
         <v>92.78</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <f t="shared" si="1"/>
         <v>102.78</v>
       </c>
@@ -1536,7 +1547,7 @@
         <f t="shared" si="0"/>
         <v>90.789999999999992</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <f t="shared" si="1"/>
         <v>100.78999999999999</v>
       </c>
@@ -1600,7 +1611,7 @@
         <f t="shared" si="0"/>
         <v>70.900000000000006</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <f t="shared" si="1"/>
         <v>80.900000000000006</v>
       </c>
@@ -1664,7 +1675,7 @@
         <f t="shared" si="0"/>
         <v>65.25</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <f t="shared" si="1"/>
         <v>75.25</v>
       </c>
@@ -1728,7 +1739,7 @@
         <f t="shared" si="0"/>
         <v>74.349999999999994</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="5">
         <f t="shared" si="1"/>
         <v>84.35</v>
       </c>
@@ -1792,7 +1803,7 @@
         <f t="shared" si="0"/>
         <v>82.34</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="5">
         <f t="shared" si="1"/>
         <v>92.34</v>
       </c>
@@ -1859,7 +1870,7 @@
         <f t="shared" si="0"/>
         <v>6.62</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="5">
         <f t="shared" si="1"/>
         <v>16.62</v>
       </c>
@@ -1926,7 +1937,7 @@
         <f t="shared" si="0"/>
         <v>20.45</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="5">
         <f t="shared" si="1"/>
         <v>30.45</v>
       </c>
@@ -1990,7 +2001,7 @@
         <f t="shared" si="0"/>
         <v>107.21</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="5">
         <f t="shared" si="1"/>
         <v>117.21</v>
       </c>
@@ -2054,7 +2065,7 @@
         <f t="shared" si="0"/>
         <v>46.82</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="5">
         <f t="shared" si="1"/>
         <v>56.82</v>
       </c>
@@ -2118,7 +2129,7 @@
         <f t="shared" si="0"/>
         <v>94.12</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="5">
         <f t="shared" si="1"/>
         <v>104.12</v>
       </c>
@@ -2182,7 +2193,7 @@
         <f t="shared" si="0"/>
         <v>84.38</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="5">
         <f t="shared" si="1"/>
         <v>94.38</v>
       </c>
@@ -2246,7 +2257,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
@@ -2310,7 +2321,7 @@
         <f t="shared" si="0"/>
         <v>45.510000000000005</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="5">
         <f t="shared" si="1"/>
         <v>55.510000000000005</v>
       </c>
@@ -2377,7 +2388,7 @@
         <f t="shared" si="0"/>
         <v>21.3</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="5">
         <f t="shared" si="1"/>
         <v>31.3</v>
       </c>
@@ -2444,16 +2455,616 @@
         <f t="shared" si="0"/>
         <v>33.04</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="5">
         <f t="shared" si="1"/>
         <v>43.04</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U31">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4">
+        <v>45.510000000000005</v>
+      </c>
+      <c r="C2" s="4">
+        <v>55.510000000000005</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
+        <v>45.78</v>
+      </c>
+      <c r="C3" s="4">
+        <v>55.78</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>46.82</v>
+      </c>
+      <c r="C4" s="4">
+        <v>56.82</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>56.29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>66.289999999999992</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G5" s="4">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>63.35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>65.25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>75.25</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>65.3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>67.97999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>77.97999999999999</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="C10" s="4">
+        <v>84.35</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>82.34</v>
+      </c>
+      <c r="C11" s="4">
+        <v>92.34</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>82.710000000000008</v>
+      </c>
+      <c r="C12" s="4">
+        <v>92.710000000000008</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>84.38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>94.38</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <v>43.4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>90.789999999999992</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100.78999999999999</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
+        <v>92.78</v>
+      </c>
+      <c r="C15" s="4">
+        <v>102.78</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <v>45.4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>94.12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>104.12</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>45.8</v>
+      </c>
+      <c r="G16" s="4">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>106.5</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>46.7</v>
+      </c>
+      <c r="G17" s="4">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>101.2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>111.2</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
+        <v>103.74000000000001</v>
+      </c>
+      <c r="C19" s="4">
+        <v>113.74000000000001</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="G19" s="4">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>104.67999999999999</v>
+      </c>
+      <c r="C20" s="4">
+        <v>114.67999999999999</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>107.21</v>
+      </c>
+      <c r="C21" s="4">
+        <v>117.21</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
+        <v>51.8</v>
+      </c>
+      <c r="G21" s="4">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>111.71</v>
+      </c>
+      <c r="C22" s="4">
+        <v>121.71</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4">
+        <v>53</v>
+      </c>
+      <c r="G22" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>118.58</v>
+      </c>
+      <c r="C23" s="4">
+        <v>128.57999999999998</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4">
+        <v>53.4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>143.76</v>
+      </c>
+      <c r="C24" s="4">
+        <v>153.76</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
+        <v>56.9</v>
+      </c>
+      <c r="G24" s="4">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4">
+        <v>57</v>
+      </c>
+      <c r="G25" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <v>58.3</v>
+      </c>
+      <c r="G26" s="4">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <v>59.7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
+        <v>61.9</v>
+      </c>
+      <c r="G28" s="4">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <v>62.4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G32" s="4">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="G34" s="4">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
+        <v>66.2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <v>68</v>
+      </c>
+      <c r="G37" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="G38" s="4">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="G39" s="4">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <v>77</v>
+      </c>
+      <c r="G40" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
+        <v>78</v>
+      </c>
+      <c r="G41" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
+        <v>79.3</v>
+      </c>
+      <c r="G42" s="4">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="G43" s="4">
+        <v>90.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F2:G43">
+    <sortCondition ref="G2:G43"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/field_forms/field_form_bandreplace[2019].xlsx
+++ b/resources/field_forms/field_form_bandreplace[2019].xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -210,6 +210,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +536,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>100.78999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>132371</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>172201</v>
       </c>
@@ -1875,7 +1878,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>172416</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>94.38</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>201261</v>
       </c>
@@ -2326,7 +2329,7 @@
         <v>55.510000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>202543</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>202545</v>
       </c>
@@ -2477,6 +2480,11 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
@@ -2488,581 +2496,1003 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="8"/>
+      <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>202541</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>45.510000000000005</v>
       </c>
-      <c r="C2" s="4">
+      <c r="E2" s="4">
         <v>55.510000000000005</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="F2" s="8"/>
+      <c r="H2" s="3">
+        <v>132280</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4">
         <v>10.3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="L2" s="9">
         <v>20.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>72448</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4">
         <v>45.78</v>
       </c>
-      <c r="C3" s="4">
+      <c r="E3" s="4">
         <v>55.78</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="F3" s="8"/>
+      <c r="H3" s="3">
+        <v>192051</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4">
         <v>13.6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="L3" s="9">
         <v>23.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>192570</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>46.82</v>
       </c>
-      <c r="C4" s="4">
+      <c r="E4" s="4">
         <v>56.82</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="F4" s="8"/>
+      <c r="H4" s="3">
+        <v>192246</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4">
         <v>38.6</v>
       </c>
-      <c r="G4" s="4">
+      <c r="L4" s="9">
         <v>48.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>80100</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>56.29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="E5" s="4">
         <v>66.289999999999992</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="F5" s="8"/>
+      <c r="H5" s="3">
+        <v>132240</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4">
         <v>39.200000000000003</v>
       </c>
-      <c r="G5" s="4">
+      <c r="L5" s="9">
         <v>49.2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>32097</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>63.35</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="4">
         <v>73.349999999999994</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="F6" s="8"/>
+      <c r="H6" s="3">
+        <v>62300</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4">
         <v>39.5</v>
       </c>
-      <c r="G6" s="4">
+      <c r="L6" s="9">
         <v>49.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>140736</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
         <v>65.25</v>
       </c>
-      <c r="C7" s="4">
+      <c r="E7" s="4">
         <v>75.25</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4">
+      <c r="F7" s="8"/>
+      <c r="H7" s="3">
+        <v>122073</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="G7" s="4">
+      <c r="L7" s="9">
         <v>49.7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>40941</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>65.3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="E8" s="4">
         <v>75.3</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="F8" s="8"/>
+      <c r="H8" s="3">
+        <v>182310</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4">
         <v>40.299999999999997</v>
       </c>
-      <c r="G8" s="4">
+      <c r="L8" s="9">
         <v>50.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>70278</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>67.97999999999999</v>
       </c>
-      <c r="C9" s="4">
+      <c r="E9" s="4">
         <v>77.97999999999999</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="F9" s="8"/>
+      <c r="H9" s="3">
+        <v>180791</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4">
         <v>40.4</v>
       </c>
-      <c r="G9" s="4">
+      <c r="L9" s="9">
         <v>50.4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>171254</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>74.349999999999994</v>
       </c>
-      <c r="C10" s="4">
+      <c r="E10" s="4">
         <v>84.35</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="F10" s="8"/>
+      <c r="H10" s="3">
+        <v>162541</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4">
         <v>41.1</v>
       </c>
-      <c r="G10" s="4">
+      <c r="L10" s="9">
         <v>51.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>171462</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>82.34</v>
       </c>
-      <c r="C11" s="4">
+      <c r="E11" s="4">
         <v>92.34</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="F11" s="8"/>
+      <c r="H11" s="3">
+        <v>121199</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4">
         <v>41.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="L11" s="9">
         <v>51.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>40972</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>82.710000000000008</v>
       </c>
-      <c r="C12" s="4">
+      <c r="E12" s="4">
         <v>92.710000000000008</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="F12" s="8"/>
+      <c r="H12" s="3">
+        <v>60548</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4">
         <v>43.3</v>
       </c>
-      <c r="G12" s="4">
+      <c r="L12" s="9">
         <v>53.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>200038</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>84.38</v>
       </c>
-      <c r="C13" s="4">
+      <c r="E13" s="4">
         <v>94.38</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="F13" s="8"/>
+      <c r="H13" s="3">
+        <v>60428</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4">
         <v>43.4</v>
       </c>
-      <c r="G13" s="4">
+      <c r="L13" s="9">
         <v>53.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>132302</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>90.789999999999992</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E14" s="4">
         <v>100.78999999999999</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="F14" s="8"/>
+      <c r="H14" s="3">
+        <v>102199</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4">
         <v>44.2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="L14" s="9">
         <v>54.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>131272</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>92.78</v>
       </c>
-      <c r="C15" s="4">
+      <c r="E15" s="4">
         <v>102.78</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="F15" s="8"/>
+      <c r="H15" s="3">
+        <v>202004</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4">
         <v>45.4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="L15" s="9">
         <v>55.4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>200038</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>94.12</v>
       </c>
-      <c r="C16" s="4">
+      <c r="E16" s="4">
         <v>104.12</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4">
+      <c r="F16" s="8"/>
+      <c r="H16" s="3">
+        <v>90640</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4">
         <v>45.8</v>
       </c>
-      <c r="G16" s="4">
+      <c r="L16" s="9">
         <v>55.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>10587</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>96.5</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E17" s="4">
         <v>106.5</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4">
+      <c r="F17" s="8"/>
+      <c r="H17" s="3">
+        <v>72173</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4">
         <v>46.7</v>
       </c>
-      <c r="G17" s="4">
+      <c r="L17" s="9">
         <v>56.7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>130718</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>101.2</v>
       </c>
-      <c r="C18" s="4">
+      <c r="E18" s="4">
         <v>111.2</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="F18" s="8"/>
+      <c r="H18" s="3">
+        <v>152508</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4">
         <v>49.2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="L18" s="9">
         <v>59.2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>121358</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <v>103.74000000000001</v>
       </c>
-      <c r="C19" s="4">
+      <c r="E19" s="4">
         <v>113.74000000000001</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
+      <c r="F19" s="8"/>
+      <c r="H19" s="3">
+        <v>62291</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4">
         <v>49.7</v>
       </c>
-      <c r="G19" s="4">
+      <c r="L19" s="9">
         <v>59.7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>30233</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
         <v>104.67999999999999</v>
       </c>
-      <c r="C20" s="4">
+      <c r="E20" s="4">
         <v>114.67999999999999</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="F20" s="8"/>
+      <c r="H20" s="3">
+        <v>122140</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4">
         <v>50.4</v>
       </c>
-      <c r="G20" s="4">
+      <c r="L20" s="9">
         <v>60.4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>182161</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
         <v>107.21</v>
       </c>
-      <c r="C21" s="4">
+      <c r="E21" s="4">
         <v>117.21</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="F21" s="8"/>
+      <c r="H21" s="3">
+        <v>50525</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4">
         <v>51.8</v>
       </c>
-      <c r="G21" s="4">
+      <c r="L21" s="9">
         <v>61.8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>90084</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
         <v>111.71</v>
       </c>
-      <c r="C22" s="4">
+      <c r="E22" s="4">
         <v>121.71</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="F22" s="8"/>
+      <c r="H22" s="3">
+        <v>162032</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="4">
         <v>53</v>
       </c>
-      <c r="G22" s="4">
+      <c r="L22" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>110061</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4">
         <v>118.58</v>
       </c>
-      <c r="C23" s="4">
+      <c r="E23" s="4">
         <v>128.57999999999998</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4">
+      <c r="F23" s="8"/>
+      <c r="H23" s="3">
+        <v>160795</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4">
         <v>53.4</v>
       </c>
-      <c r="G23" s="4">
+      <c r="L23" s="9">
         <v>63.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>90043</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
         <v>143.76</v>
       </c>
-      <c r="C24" s="4">
+      <c r="E24" s="4">
         <v>153.76</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="F24" s="8"/>
+      <c r="H24" s="3">
+        <v>92347</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="4">
         <v>56.9</v>
       </c>
-      <c r="G24" s="4">
+      <c r="L24" s="9">
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="4"/>
-      <c r="F25" s="4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <v>192192</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4">
         <v>57</v>
       </c>
-      <c r="G25" s="4">
+      <c r="L25" s="9">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="4"/>
-      <c r="F26" s="4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <v>82263</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4">
         <v>58.3</v>
       </c>
-      <c r="G26" s="4">
+      <c r="L26" s="9">
         <v>68.3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="4"/>
-      <c r="F27" s="4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <v>180999</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4">
         <v>59.7</v>
       </c>
-      <c r="G27" s="4">
+      <c r="L27" s="9">
         <v>69.7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-      <c r="F28" s="4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <v>152513</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4">
         <v>61.9</v>
       </c>
-      <c r="G28" s="4">
+      <c r="L28" s="9">
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="4"/>
-      <c r="F29" s="4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <v>142548</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="4">
         <v>62.2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="L29" s="9">
         <v>72.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="4"/>
-      <c r="F30" s="4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <v>182050</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="4">
         <v>62.2</v>
       </c>
-      <c r="G30" s="4">
+      <c r="L30" s="9">
         <v>72.2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="4"/>
-      <c r="F31" s="4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <v>101192</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4">
         <v>62.4</v>
       </c>
-      <c r="G31" s="4">
+      <c r="L31" s="9">
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <v>50272</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="4">
         <v>65.099999999999994</v>
       </c>
-      <c r="G32" s="4">
+      <c r="L32" s="9">
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="4"/>
-      <c r="F33" s="4">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <v>50622</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="4">
         <v>65.5</v>
       </c>
-      <c r="G33" s="4">
+      <c r="L33" s="9">
         <v>75.5</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="4"/>
-      <c r="F34" s="4">
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <v>82158</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4">
         <v>65.7</v>
       </c>
-      <c r="G34" s="4">
+      <c r="L34" s="9">
         <v>75.7</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="4"/>
-      <c r="F35" s="4">
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="3">
+        <v>122201</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="4">
         <v>66.2</v>
       </c>
-      <c r="G35" s="4">
+      <c r="L35" s="9">
         <v>76.2</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="4"/>
-      <c r="F36" s="4">
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <v>72228</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="4">
         <v>67.5</v>
       </c>
-      <c r="G36" s="4">
+      <c r="L36" s="9">
         <v>77.5</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="4"/>
-      <c r="F37" s="4">
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="3">
+        <v>92016</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="4">
         <v>68</v>
       </c>
-      <c r="G37" s="4">
+      <c r="L37" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="4"/>
-      <c r="F38" s="4">
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <v>102423</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="4">
         <v>68.400000000000006</v>
       </c>
-      <c r="G38" s="4">
+      <c r="L38" s="9">
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="4"/>
-      <c r="F39" s="4">
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <v>50562</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4">
         <v>68.8</v>
       </c>
-      <c r="G39" s="4">
+      <c r="L39" s="9">
         <v>78.8</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
-      <c r="F40" s="4">
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <v>111217</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="4">
         <v>77</v>
       </c>
-      <c r="G40" s="4">
+      <c r="L40" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="4"/>
-      <c r="F41" s="4">
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H41" s="3">
+        <v>182755</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="4">
         <v>78</v>
       </c>
-      <c r="G41" s="4">
+      <c r="L41" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="4"/>
-      <c r="F42" s="4">
+    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="3">
+        <v>180931</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4">
         <v>79.3</v>
       </c>
-      <c r="G42" s="4">
+      <c r="L42" s="9">
         <v>89.3</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="4"/>
-      <c r="F43" s="4">
+    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="3">
+        <v>162446</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4">
         <v>80.5</v>
       </c>
-      <c r="G43" s="4">
+      <c r="L43" s="9">
         <v>90.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F2:G43">
-    <sortCondition ref="G2:G43"/>
+  <sortState ref="H2:L43">
+    <sortCondition ref="L2:L43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resources/field_forms/field_form_bandreplace[2019].xlsx
+++ b/resources/field_forms/field_form_bandreplace[2019].xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,11 +207,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,11 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,26 +516,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>100.78999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>132371</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>92.34</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>172201</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>172416</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>28</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" s="3">
         <v>843.8</v>
@@ -2201,7 +2200,7 @@
         <v>94.38</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>201261</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>55.510000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>202543</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>202545</v>
       </c>
@@ -2480,11 +2479,6 @@
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
@@ -2498,7 +2492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2525,7 +2519,7 @@
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="7"/>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
@@ -2552,7 +2546,7 @@
       <c r="E2" s="4">
         <v>55.510000000000005</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
       <c r="H2" s="3">
         <v>132280</v>
       </c>
@@ -2563,7 +2557,7 @@
       <c r="K2" s="4">
         <v>10.3</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>20.3</v>
       </c>
     </row>
@@ -2581,7 +2575,7 @@
       <c r="E3" s="4">
         <v>55.78</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="H3" s="3">
         <v>192051</v>
       </c>
@@ -2592,7 +2586,7 @@
       <c r="K3" s="4">
         <v>13.6</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>23.6</v>
       </c>
     </row>
@@ -2610,7 +2604,7 @@
       <c r="E4" s="4">
         <v>56.82</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="H4" s="3">
         <v>192246</v>
       </c>
@@ -2621,7 +2615,7 @@
       <c r="K4" s="4">
         <v>38.6</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>48.6</v>
       </c>
     </row>
@@ -2639,7 +2633,7 @@
       <c r="E5" s="4">
         <v>66.289999999999992</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="H5" s="3">
         <v>132240</v>
       </c>
@@ -2650,7 +2644,7 @@
       <c r="K5" s="4">
         <v>39.200000000000003</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>49.2</v>
       </c>
     </row>
@@ -2668,7 +2662,7 @@
       <c r="E6" s="4">
         <v>73.349999999999994</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
       <c r="H6" s="3">
         <v>62300</v>
       </c>
@@ -2679,7 +2673,7 @@
       <c r="K6" s="4">
         <v>39.5</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>49.5</v>
       </c>
     </row>
@@ -2697,7 +2691,7 @@
       <c r="E7" s="4">
         <v>75.25</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="3">
         <v>122073</v>
       </c>
@@ -2708,7 +2702,7 @@
       <c r="K7" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>49.7</v>
       </c>
     </row>
@@ -2726,7 +2720,7 @@
       <c r="E8" s="4">
         <v>75.3</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
       <c r="H8" s="3">
         <v>182310</v>
       </c>
@@ -2737,7 +2731,7 @@
       <c r="K8" s="4">
         <v>40.299999999999997</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>50.3</v>
       </c>
     </row>
@@ -2755,7 +2749,7 @@
       <c r="E9" s="4">
         <v>77.97999999999999</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="7"/>
       <c r="H9" s="3">
         <v>180791</v>
       </c>
@@ -2766,7 +2760,7 @@
       <c r="K9" s="4">
         <v>40.4</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>50.4</v>
       </c>
     </row>
@@ -2784,7 +2778,7 @@
       <c r="E10" s="4">
         <v>84.35</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="7"/>
       <c r="H10" s="3">
         <v>162541</v>
       </c>
@@ -2795,7 +2789,7 @@
       <c r="K10" s="4">
         <v>41.1</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>51.1</v>
       </c>
     </row>
@@ -2813,7 +2807,7 @@
       <c r="E11" s="4">
         <v>92.34</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="7"/>
       <c r="H11" s="3">
         <v>121199</v>
       </c>
@@ -2824,7 +2818,7 @@
       <c r="K11" s="4">
         <v>41.5</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="8">
         <v>51.5</v>
       </c>
     </row>
@@ -2842,7 +2836,7 @@
       <c r="E12" s="4">
         <v>92.710000000000008</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
       <c r="H12" s="3">
         <v>60548</v>
       </c>
@@ -2853,7 +2847,7 @@
       <c r="K12" s="4">
         <v>43.3</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>53.3</v>
       </c>
     </row>
@@ -2871,7 +2865,7 @@
       <c r="E13" s="4">
         <v>94.38</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="7"/>
       <c r="H13" s="3">
         <v>60428</v>
       </c>
@@ -2882,7 +2876,7 @@
       <c r="K13" s="4">
         <v>43.4</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>53.4</v>
       </c>
     </row>
@@ -2900,7 +2894,7 @@
       <c r="E14" s="4">
         <v>100.78999999999999</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="7"/>
       <c r="H14" s="3">
         <v>102199</v>
       </c>
@@ -2911,7 +2905,7 @@
       <c r="K14" s="4">
         <v>44.2</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>54.2</v>
       </c>
     </row>
@@ -2929,7 +2923,7 @@
       <c r="E15" s="4">
         <v>102.78</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
       <c r="H15" s="3">
         <v>202004</v>
       </c>
@@ -2940,7 +2934,7 @@
       <c r="K15" s="4">
         <v>45.4</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>55.4</v>
       </c>
     </row>
@@ -2958,7 +2952,7 @@
       <c r="E16" s="4">
         <v>104.12</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="H16" s="3">
         <v>90640</v>
       </c>
@@ -2969,7 +2963,7 @@
       <c r="K16" s="4">
         <v>45.8</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>55.8</v>
       </c>
     </row>
@@ -2987,7 +2981,7 @@
       <c r="E17" s="4">
         <v>106.5</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="H17" s="3">
         <v>72173</v>
       </c>
@@ -2998,7 +2992,7 @@
       <c r="K17" s="4">
         <v>46.7</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>56.7</v>
       </c>
     </row>
@@ -3016,7 +3010,7 @@
       <c r="E18" s="4">
         <v>111.2</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="H18" s="3">
         <v>152508</v>
       </c>
@@ -3027,7 +3021,7 @@
       <c r="K18" s="4">
         <v>49.2</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>59.2</v>
       </c>
     </row>
@@ -3045,7 +3039,7 @@
       <c r="E19" s="4">
         <v>113.74000000000001</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
       <c r="H19" s="3">
         <v>62291</v>
       </c>
@@ -3056,7 +3050,7 @@
       <c r="K19" s="4">
         <v>49.7</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>59.7</v>
       </c>
     </row>
@@ -3074,7 +3068,7 @@
       <c r="E20" s="4">
         <v>114.67999999999999</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="H20" s="3">
         <v>122140</v>
       </c>
@@ -3085,7 +3079,7 @@
       <c r="K20" s="4">
         <v>50.4</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>60.4</v>
       </c>
     </row>
@@ -3103,7 +3097,7 @@
       <c r="E21" s="4">
         <v>117.21</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
       <c r="H21" s="3">
         <v>50525</v>
       </c>
@@ -3114,7 +3108,7 @@
       <c r="K21" s="4">
         <v>51.8</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>61.8</v>
       </c>
     </row>
@@ -3132,7 +3126,7 @@
       <c r="E22" s="4">
         <v>121.71</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="7"/>
       <c r="H22" s="3">
         <v>162032</v>
       </c>
@@ -3143,7 +3137,7 @@
       <c r="K22" s="4">
         <v>53</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="8">
         <v>63</v>
       </c>
     </row>
@@ -3161,7 +3155,7 @@
       <c r="E23" s="4">
         <v>128.57999999999998</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="7"/>
       <c r="H23" s="3">
         <v>160795</v>
       </c>
@@ -3172,7 +3166,7 @@
       <c r="K23" s="4">
         <v>53.4</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>63.4</v>
       </c>
     </row>
@@ -3190,7 +3184,7 @@
       <c r="E24" s="4">
         <v>153.76</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
       <c r="H24" s="3">
         <v>92347</v>
       </c>
@@ -3201,7 +3195,7 @@
       <c r="K24" s="4">
         <v>56.9</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>66.900000000000006</v>
       </c>
     </row>
@@ -3216,7 +3210,7 @@
       <c r="K25" s="4">
         <v>57</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>67</v>
       </c>
     </row>
@@ -3231,7 +3225,7 @@
       <c r="K26" s="4">
         <v>58.3</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>68.3</v>
       </c>
     </row>
@@ -3246,7 +3240,7 @@
       <c r="K27" s="4">
         <v>59.7</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>69.7</v>
       </c>
     </row>
@@ -3261,7 +3255,7 @@
       <c r="K28" s="4">
         <v>61.9</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>71.900000000000006</v>
       </c>
     </row>
@@ -3276,7 +3270,7 @@
       <c r="K29" s="4">
         <v>62.2</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>72.2</v>
       </c>
     </row>
@@ -3291,7 +3285,7 @@
       <c r="K30" s="4">
         <v>62.2</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>72.2</v>
       </c>
     </row>
@@ -3306,7 +3300,7 @@
       <c r="K31" s="4">
         <v>62.4</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>72.400000000000006</v>
       </c>
     </row>
@@ -3321,7 +3315,7 @@
       <c r="K32" s="4">
         <v>65.099999999999994</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="8">
         <v>75.099999999999994</v>
       </c>
     </row>
@@ -3336,7 +3330,7 @@
       <c r="K33" s="4">
         <v>65.5</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>75.5</v>
       </c>
     </row>
@@ -3351,7 +3345,7 @@
       <c r="K34" s="4">
         <v>65.7</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="8">
         <v>75.7</v>
       </c>
     </row>
@@ -3366,7 +3360,7 @@
       <c r="K35" s="4">
         <v>66.2</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="8">
         <v>76.2</v>
       </c>
     </row>
@@ -3381,7 +3375,7 @@
       <c r="K36" s="4">
         <v>67.5</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>77.5</v>
       </c>
     </row>
@@ -3396,7 +3390,7 @@
       <c r="K37" s="4">
         <v>68</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="8">
         <v>78</v>
       </c>
     </row>
@@ -3411,7 +3405,7 @@
       <c r="K38" s="4">
         <v>68.400000000000006</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="8">
         <v>78.400000000000006</v>
       </c>
     </row>
@@ -3426,7 +3420,7 @@
       <c r="K39" s="4">
         <v>68.8</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>78.8</v>
       </c>
     </row>
@@ -3441,7 +3435,7 @@
       <c r="K40" s="4">
         <v>77</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <v>87</v>
       </c>
     </row>
@@ -3456,7 +3450,7 @@
       <c r="K41" s="4">
         <v>78</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>88</v>
       </c>
     </row>
@@ -3471,7 +3465,7 @@
       <c r="K42" s="4">
         <v>79.3</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>89.3</v>
       </c>
     </row>
@@ -3486,7 +3480,7 @@
       <c r="K43" s="4">
         <v>80.5</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>90.5</v>
       </c>
     </row>

--- a/resources/field_forms/field_form_bandreplace[2019].xlsx
+++ b/resources/field_forms/field_form_bandreplace[2019].xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="36">
   <si>
     <t>Dendroband Replacement                       Date:                       Surveyors:</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>band length</t>
-  </si>
-  <si>
-    <t>finish</t>
   </si>
   <si>
     <t>cm</t>
@@ -158,12 +155,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,6 +215,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +500,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +649,7 @@
         <v>28</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="3">
         <v>965</v>
@@ -708,7 +713,7 @@
         <v>28</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="3">
         <v>1046.8</v>
@@ -772,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="3">
         <v>633.5</v>
@@ -836,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3">
         <v>653</v>
@@ -900,7 +905,7 @@
         <v>29</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="3">
         <v>827.1</v>
@@ -964,7 +969,7 @@
         <v>28</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="3">
         <v>679.8</v>
@@ -1028,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="3">
         <v>457.8</v>
@@ -1092,7 +1097,7 @@
         <v>28</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="3">
         <v>562.9</v>
@@ -1107,52 +1112,52 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>90043</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="10">
         <v>901</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>12.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="10">
         <v>1437.6</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="4" t="s">
+      <c r="H11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q11">
@@ -1171,52 +1176,52 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>90084</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="10">
         <v>902</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="10">
         <v>16.2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="10">
         <v>19.3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="10">
         <v>1117.0999999999999</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="4" t="s">
+      <c r="H12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q12">
@@ -1235,52 +1240,52 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>110061</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="10">
         <v>1101</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="10">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="10">
         <v>10</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="10">
         <v>1185.8</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="4" t="s">
+      <c r="H13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q13">
@@ -1348,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3">
         <v>1037.4000000000001</v>
@@ -1412,7 +1417,7 @@
         <v>28</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="3">
         <v>1012</v>
@@ -1476,7 +1481,7 @@
         <v>29</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="3">
         <v>927.8</v>
@@ -1540,7 +1545,7 @@
         <v>29</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="3">
         <v>907.9</v>
@@ -1668,7 +1673,7 @@
         <v>28</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="3">
         <v>652.5</v>
@@ -1732,7 +1737,7 @@
         <v>28</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="3">
         <v>743.5</v>
@@ -1796,7 +1801,7 @@
         <v>29</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="3">
         <v>823.4</v>
@@ -1862,9 +1867,6 @@
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="R22" t="s">
-        <v>33</v>
-      </c>
       <c r="S22" s="3">
         <v>66.2</v>
       </c>
@@ -1929,9 +1931,6 @@
       <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23" t="s">
-        <v>33</v>
-      </c>
       <c r="S23" s="3">
         <v>204.5</v>
       </c>
@@ -1945,52 +1944,52 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>182161</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="10">
         <v>1822</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="10">
         <v>16.8</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="10">
         <v>3.2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="10">
         <v>1072.0999999999999</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="4" t="s">
+      <c r="H24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="11" t="s">
         <v>29</v>
       </c>
       <c r="Q24">
@@ -2058,7 +2057,7 @@
         <v>29</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="3">
         <v>468.2</v>
@@ -2073,52 +2072,52 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>200038</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="10">
         <v>2001</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="10">
         <v>3.6</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="10">
         <v>9.6</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="10">
         <v>941.2</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P26" s="4" t="s">
+      <c r="H26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" s="11" t="s">
         <v>28</v>
       </c>
       <c r="Q26">
@@ -2314,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="3">
         <v>455.1</v>
@@ -2380,9 +2379,6 @@
       <c r="Q30">
         <v>1</v>
       </c>
-      <c r="R30" t="s">
-        <v>33</v>
-      </c>
       <c r="S30" s="3">
         <v>213</v>
       </c>
@@ -2446,9 +2442,6 @@
       </c>
       <c r="Q31">
         <v>1</v>
-      </c>
-      <c r="R31" t="s">
-        <v>33</v>
       </c>
       <c r="S31" s="3">
         <v>330.4</v>
@@ -2509,24 +2502,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="7"/>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>32</v>
